--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4B6007-9744-4B09-B063-05863838A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TEAM_MEMBER" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="APPLICATION" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="APPLICATION_TEAM_MEMBER" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CHAPTER_AREA_LEADER" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CHAPTER_LEADER" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="TRIBE" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="SQUAD" sheetId="7" r:id="rId10"/>
+    <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
+    <sheet name="APPLICATION" sheetId="2" r:id="rId2"/>
+    <sheet name="APPLICATION_TEAM_MEMBER" sheetId="3" r:id="rId3"/>
+    <sheet name="CHAPTER_AREA_LEADER" sheetId="4" r:id="rId4"/>
+    <sheet name="CHAPTER_LEADER" sheetId="5" r:id="rId5"/>
+    <sheet name="TRIBE" sheetId="6" r:id="rId6"/>
+    <sheet name="SQUAD" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjcmftFP8ZfQ9PZI4PgWbINAFOdbw=="/>
@@ -22,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="77">
   <si>
     <t>TEAM_MEMBER</t>
   </si>
@@ -248,44 +257,54 @@
   <si>
     <t>Nombre</t>
   </si>
+  <si>
+    <t>COMENTARIO</t>
+  </si>
+  <si>
+    <t>Comentario del CL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Exo"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Exo"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -294,7 +313,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,7 +323,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -318,80 +343,54 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -581,27 +580,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="36.43"/>
-    <col customWidth="1" min="3" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="36.29"/>
-    <col customWidth="1" min="10" max="27" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="10" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:9" ht="18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +612,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -639,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -659,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -667,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -680,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -688,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -700,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -711,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -723,7 +722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -731,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -743,7 +742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -763,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -771,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
@@ -783,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -791,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -803,7 +802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -811,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -823,7 +822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
@@ -831,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -843,7 +842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -851,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -863,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
@@ -881,7 +880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9">
       <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
@@ -889,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
@@ -901,7 +900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -919,7 +918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:9">
       <c r="B18" s="6" t="s">
         <v>43</v>
       </c>
@@ -927,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
@@ -939,7 +938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:9">
       <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
@@ -954,6 +953,3645 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:I1001"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="72.5703125" customWidth="1"/>
+    <col min="10" max="27" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18">
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:H1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="80.85546875" customWidth="1"/>
+    <col min="9" max="26" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:I1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="58.85546875" customWidth="1"/>
+    <col min="10" max="27" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18">
+      <c r="B2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1938,33 +5576,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="25.86"/>
-    <col customWidth="1" min="3" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="72.57"/>
-    <col customWidth="1" min="10" max="27" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" customWidth="1"/>
+    <col min="10" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1974,7 +5608,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +5634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:9">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2020,90 +5654,96 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>17</v>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5">
-        <v>100.0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
-        <v>52</v>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5">
-        <v>50.0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
-        <v>100.0</v>
+      <c r="D9" s="5">
+        <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
@@ -2111,11 +5751,11 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>57</v>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
@@ -2133,7 +5773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -2141,7 +5781,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -2153,7 +5793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
@@ -2171,7 +5811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
@@ -2179,7 +5819,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -2191,7 +5831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
@@ -2208,1145 +5848,6 @@
       <c r="I14" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="32.0"/>
-    <col customWidth="1" min="3" max="7" width="10.71"/>
-    <col customWidth="1" min="8" max="8" width="80.86"/>
-    <col customWidth="1" min="9" max="26" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="7"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4329,33 +6830,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="34.14"/>
-    <col customWidth="1" min="3" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="58.86"/>
-    <col customWidth="1" min="10" max="27" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" customWidth="1"/>
+    <col min="10" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4365,7 +6864,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4391,7 +6890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:9">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -4411,15 +6910,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5">
-        <v>6.0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -4428,20 +6927,22 @@
       <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5">
-        <v>100.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -4450,19 +6951,17 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>50.0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4470,18 +6969,18 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
-        <v>50.0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -4490,100 +6989,62 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5568,33 +8029,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="29.14"/>
-    <col customWidth="1" min="3" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="51.57"/>
-    <col customWidth="1" min="10" max="27" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" customWidth="1"/>
+    <col min="10" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5604,7 +8061,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5630,7 +8087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:9">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -5650,9 +8107,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -5667,40 +8124,39 @@
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5">
-        <v>6.0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
-        <v>66</v>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>100.0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5708,18 +8164,18 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
-        <v>50.0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -5728,57 +8184,55 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
-        <v>50.0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5786,62 +8240,6 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6826,2411 +9224,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="33.29"/>
-    <col customWidth="1" min="3" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
-    <col customWidth="1" min="8" max="8" width="4.43"/>
-    <col customWidth="1" min="9" max="9" width="56.71"/>
-    <col customWidth="1" min="10" max="27" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="20.43"/>
-    <col customWidth="1" min="3" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="50.57"/>
-    <col customWidth="1" min="10" max="27" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4B6007-9744-4B09-B063-05863838A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949EC14-22E0-41CB-8B13-82B0871028FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>FEC_INGRESO</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Fecha de ingreso del registro</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Comentario del CL</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -866,8 +868,8 @@
       <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
+      <c r="C15" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
@@ -877,12 +879,12 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -897,15 +899,15 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
@@ -915,12 +917,12 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
@@ -935,12 +937,12 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -953,7 +955,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1"/>
@@ -1946,7 +1948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1959,7 +1963,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2017,7 +2021,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -2029,11 +2033,11 @@
         <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2053,12 +2057,12 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -2073,12 +2077,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2086,13 +2090,13 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -2107,15 +2111,15 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
@@ -2125,12 +2129,12 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>15</v>
@@ -2145,15 +2149,15 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -2163,12 +2167,12 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -2183,12 +2187,12 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -2201,7 +2205,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -3194,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3209,7 +3213,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -3226,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -3237,7 +3241,7 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -3258,7 +3262,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -3274,15 +3278,15 @@
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -3293,12 +3297,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -3312,7 +3316,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -3320,7 +3324,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -3329,12 +3333,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -3348,7 +3352,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -4350,7 +4354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4363,7 +4369,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4443,7 +4449,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -4505,8 +4511,8 @@
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
@@ -4516,12 +4522,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -4536,15 +4542,15 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
@@ -4554,12 +4560,12 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -4574,12 +4580,12 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -4592,7 +4598,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5585,7 +5591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5598,7 +5606,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5656,7 +5664,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -5671,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -5697,7 +5705,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -5759,8 +5767,8 @@
       <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
@@ -5770,12 +5778,12 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>15</v>
@@ -5790,15 +5798,15 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -5808,12 +5816,12 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -5828,12 +5836,12 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -5846,7 +5854,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6839,7 +6847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6854,7 +6864,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6951,15 +6961,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -6969,12 +6979,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -6989,15 +6999,15 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
@@ -7007,12 +7017,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -7027,12 +7037,12 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -7045,7 +7055,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8038,7 +8048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8051,7 +8063,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18">
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -8109,7 +8121,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -8124,7 +8136,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -8146,15 +8158,15 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -8164,12 +8176,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -8184,15 +8196,15 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
@@ -8202,12 +8214,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -8222,12 +8234,12 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -8240,7 +8252,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949EC14-22E0-41CB-8B13-82B0871028FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232EC49-4795-4F5E-B43F-59AE1AE2FFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,23 @@
     <sheet name="CHAPTER_LEADER" sheetId="5" r:id="rId5"/>
     <sheet name="TRIBE" sheetId="6" r:id="rId6"/>
     <sheet name="SQUAD" sheetId="7" r:id="rId7"/>
+    <sheet name="USER" sheetId="8" r:id="rId8"/>
+    <sheet name="ROL" sheetId="9" r:id="rId9"/>
+    <sheet name="ROL_SUB_MENU" sheetId="12" r:id="rId10"/>
+    <sheet name="SUB_MENU" sheetId="11" r:id="rId11"/>
+    <sheet name="MENU" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjcmftFP8ZfQ9PZI4PgWbINAFOdbw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mjcmftFP8ZfQ9PZI4PgWbINAFOdbw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="100">
   <si>
     <t>TEAM_MEMBER</t>
   </si>
@@ -262,6 +267,75 @@
   </si>
   <si>
     <t>DATETIME</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>ID_ROL</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>COD_ROL</t>
+  </si>
+  <si>
+    <t>Codigo de rol</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>COD_MENU</t>
+  </si>
+  <si>
+    <t>ID_MENU</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Codigo de menu</t>
+  </si>
+  <si>
+    <t>SUB_MENU</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>TITTLE</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>Icono de menu</t>
+  </si>
+  <si>
+    <t>Ruta de Menu</t>
+  </si>
+  <si>
+    <t>ROL_SUB_MENU</t>
+  </si>
+  <si>
+    <t>ID_SUB_MENU</t>
   </si>
 </sst>
 </file>
@@ -590,7 +664,7 @@
   <dimension ref="A2:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1941,6 +2015,620 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104D9F54-4943-4A9F-80BB-4C4F9AF0FE01}">
+  <dimension ref="B4:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="18">
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2BC26C-1A45-4DE1-8529-B13BB3FBE485}">
+  <dimension ref="B4:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="18">
+      <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ADF1D7-7E77-4D41-A6A0-7187F857527B}">
+  <dimension ref="B4:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="18">
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3199,7 +3887,7 @@
   <dimension ref="B2:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8048,8 +8736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9239,4 +9927,468 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC0D42A-3FF1-482D-8B85-DBA588540B6D}">
+  <dimension ref="B3:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="59.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="18">
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8587D-E758-47BE-81A9-257465BB877C}">
+  <dimension ref="B3:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="18">
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232EC49-4795-4F5E-B43F-59AE1AE2FFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FE27E-BDAD-473A-9A62-015F0DD19D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104D9F54-4943-4A9F-80BB-4C4F9AF0FE01}">
   <dimension ref="B4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2175,7 +2175,7 @@
   <dimension ref="B4:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B15"/>
+      <selection activeCell="B4" sqref="B4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9934,7 +9934,7 @@
   <dimension ref="B3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B4" sqref="B4:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10180,6 +10180,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10187,7 +10188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8587D-E758-47BE-81A9-257465BB877C}">
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FE27E-BDAD-473A-9A62-015F0DD19D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43118662-AE6B-4D15-88CD-9BD07DCCB2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,25 @@
     <sheet name="CHAPTER_AREA_LEADER" sheetId="4" r:id="rId4"/>
     <sheet name="CHAPTER_LEADER" sheetId="5" r:id="rId5"/>
     <sheet name="TRIBE" sheetId="6" r:id="rId6"/>
-    <sheet name="SQUAD" sheetId="7" r:id="rId7"/>
-    <sheet name="USER" sheetId="8" r:id="rId8"/>
+    <sheet name="USER" sheetId="8" r:id="rId7"/>
+    <sheet name="SQUAD" sheetId="7" r:id="rId8"/>
     <sheet name="ROL" sheetId="9" r:id="rId9"/>
     <sheet name="ROL_SUB_MENU" sheetId="12" r:id="rId10"/>
     <sheet name="SUB_MENU" sheetId="11" r:id="rId11"/>
     <sheet name="MENU" sheetId="10" r:id="rId12"/>
+    <sheet name="Hoja1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mjcmftFP8ZfQ9PZI4PgWbINAFOdbw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjcmftFP8ZfQ9PZI4PgWbINAFOdbw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="102">
   <si>
     <t>TEAM_MEMBER</t>
   </si>
@@ -336,6 +337,12 @@
   </si>
   <si>
     <t>ID_SUB_MENU</t>
+  </si>
+  <si>
+    <t>NOMBRE_CHAPTER</t>
+  </si>
+  <si>
+    <t>Nombre del Chapter al que pertenece</t>
   </si>
 </sst>
 </file>
@@ -2628,6 +2635,20 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597DA0E-581F-4FBC-A41E-17D47EE43252}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6277,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:I1000"/>
+  <dimension ref="B2:I1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6453,32 +6474,30 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>200</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6486,37 +6505,37 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
@@ -6524,28 +6543,47 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -7525,6 +7563,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8733,6 +8772,261 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC0D42A-3FF1-482D-8B85-DBA588540B6D}">
+  <dimension ref="B3:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="59.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="18">
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
@@ -9929,266 +10223,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC0D42A-3FF1-482D-8B85-DBA588540B6D}">
-  <dimension ref="B3:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="59.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8587D-E758-47BE-81A9-257465BB877C}">
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43118662-AE6B-4D15-88CD-9BD07DCCB2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAF1FF-2694-4158-9931-0B641D2C83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="104">
   <si>
     <t>TEAM_MEMBER</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Nombre del Chapter al que pertenece</t>
+  </si>
+  <si>
+    <t>Codigo de aplicacion</t>
+  </si>
+  <si>
+    <t>Codigo de Team Member</t>
   </si>
 </sst>
 </file>
@@ -3905,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:H1001"/>
+  <dimension ref="B2:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3950,28 +3956,26 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -3980,100 +3984,116 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="E12" s="7"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="D14" s="11"/>
+    <row r="13" spans="2:8">
+      <c r="E13" s="7"/>
     </row>
     <row r="15" spans="2:8">
       <c r="D15" s="11"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:8">
+      <c r="D16" s="11"/>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -5053,6 +5073,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6300,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6482,7 +6503,9 @@
       <c r="D10" s="6">
         <v>200</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>

--- a/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
+++ b/Diccionaro de datos/Tablas_PROYECTOBCP_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAF1FF-2694-4158-9931-0B641D2C83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248222E3-A8CA-4AA5-B049-330CB3C0159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="0" windowWidth="21600" windowHeight="15600" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="CHAPTER_AREA_LEADER" sheetId="4" r:id="rId4"/>
     <sheet name="CHAPTER_LEADER" sheetId="5" r:id="rId5"/>
     <sheet name="TRIBE" sheetId="6" r:id="rId6"/>
-    <sheet name="USER" sheetId="8" r:id="rId7"/>
-    <sheet name="SQUAD" sheetId="7" r:id="rId8"/>
+    <sheet name="SQUAD" sheetId="7" r:id="rId7"/>
+    <sheet name="USER" sheetId="8" r:id="rId8"/>
     <sheet name="ROL" sheetId="9" r:id="rId9"/>
     <sheet name="ROL_SUB_MENU" sheetId="12" r:id="rId10"/>
     <sheet name="SUB_MENU" sheetId="11" r:id="rId11"/>
@@ -355,11 +355,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,29 +443,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2185,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2BC26C-1A45-4DE1-8529-B13BB3FBE485}">
-  <dimension ref="B4:I15"/>
+  <dimension ref="B4:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2428,6 +2436,9 @@
         <v>45</v>
       </c>
     </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2437,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ADF1D7-7E77-4D41-A6A0-7187F857527B}">
   <dimension ref="B4:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3913,7 +3924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -8795,261 +8806,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC0D42A-3FF1-482D-8B85-DBA588540B6D}">
-  <dimension ref="B3:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="59.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I1000"/>
   <sheetViews>
@@ -10246,6 +10002,261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC0D42A-3FF1-482D-8B85-DBA588540B6D}">
+  <dimension ref="B3:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="59.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="18">
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8587D-E758-47BE-81A9-257465BB877C}">
   <dimension ref="B3:I12"/>
